--- a/mobile-development-zc0015/config.xlsx
+++ b/mobile-development-zc0015/config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Projects\canvas-course-scaffolder-with-course-configs\mobile-development-zc0015\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6E8BF7F-2688-4F0B-B509-3CB02E44D039}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A63BE966-DE99-4958-9F9A-E7969E99A403}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1920" yWindow="0" windowWidth="27708" windowHeight="16560" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -291,9 +291,6 @@
     <t>https://it-graduaten-javascript.netlify.app/lessen/mobile/avond/lecture1.html</t>
   </si>
   <si>
-    <t>git clone https://sebastiaanh.com/git/5960dc9d9fd74c22a1c839f4c49fd3a9/a859a00f4caa462bb624655f83e93386/mobile_dev_lecture1_example</t>
-  </si>
-  <si>
     <t>https://it-graduaten-javascript.netlify.app/oefeningen/mobile/avond/lecture1.html</t>
   </si>
   <si>
@@ -343,6 +340,9 @@
   </si>
   <si>
     <t>https://gitpub.sebastiaanh.com/public/web/0e384b91-16b9-4bf6-a81c-933f0d09aeb0/</t>
+  </si>
+  <si>
+    <t>https://gitpub.sebastiaanh.com/public/web/a859a00f-4caa-462b-b624-655f83e93386/</t>
   </si>
 </sst>
 </file>
@@ -1223,8 +1223,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E63DFD8-2013-40A2-8CE5-0CB5ABE5CD54}">
   <dimension ref="A1:I61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1425,7 +1425,7 @@
         <v>52</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" s="2"/>
       <c r="I13">
@@ -1540,7 +1540,7 @@
         <v>1</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="I20">
         <v>2</v>
@@ -1574,7 +1574,7 @@
         <v>1</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I22">
         <v>1</v>
@@ -1594,7 +1594,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I23">
         <v>2</v>
@@ -1628,7 +1628,7 @@
         <v>1</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I26">
         <v>1</v>
@@ -1648,7 +1648,7 @@
         <v>1</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I27">
         <v>2</v>
@@ -1668,7 +1668,7 @@
         <v>1</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I28">
         <v>2</v>
@@ -1702,7 +1702,7 @@
         <v>1</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I30">
         <v>1</v>
@@ -1722,7 +1722,7 @@
         <v>0</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I31">
         <v>2</v>
@@ -1756,7 +1756,7 @@
         <v>1</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I34">
         <v>1</v>
@@ -1776,7 +1776,7 @@
         <v>1</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I35">
         <v>2</v>
@@ -1796,7 +1796,7 @@
         <v>1</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I36">
         <v>2</v>
@@ -1830,7 +1830,7 @@
         <v>1</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I38">
         <v>1</v>
@@ -1850,7 +1850,7 @@
         <v>0</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I39">
         <v>2</v>
@@ -1884,7 +1884,7 @@
         <v>1</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I42">
         <v>1</v>
@@ -1904,7 +1904,7 @@
         <v>1</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I43">
         <v>2</v>
@@ -1924,7 +1924,7 @@
         <v>1</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I44">
         <v>2</v>
@@ -1958,7 +1958,7 @@
         <v>1</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I46">
         <v>1</v>
@@ -1978,7 +1978,7 @@
         <v>0</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I47">
         <v>2</v>
